--- a/Thesis/METRICAS/Predicciones.xlsx
+++ b/Thesis/METRICAS/Predicciones.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENFERMOS\0.jpg</t>
+          <t>enfermos\0.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENFERMOS\015.jpg</t>
+          <t>enfermos\015.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -488,7 +488,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENFERMOS\0_180_grados.jpg</t>
+          <t>enfermos\0_180_grados.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -504,7 +504,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENFERMOS\0_270_grados.jpg</t>
+          <t>enfermos\0_270_grados.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -520,7 +520,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENFERMOS\0_90_grados.jpg</t>
+          <t>enfermos\0_90_grados.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -536,7 +536,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENFERMOS\0e14af0f6555ccbe7fc844fc731757c1.jpg</t>
+          <t>enfermos\0e14af0f6555ccbe7fc844fc731757c1.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -552,7 +552,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ENFERMOS\1.jpg</t>
+          <t>enfermos\1.jpg</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -568,7 +568,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ENFERMOS\10.jpg</t>
+          <t>enfermos\10.jpg</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -584,7 +584,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ENFERMOS\10_180_grados.jpg</t>
+          <t>enfermos\10_180_grados.jpg</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -600,7 +600,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ENFERMOS\10_270_grados.jpg</t>
+          <t>enfermos\10_270_grados.jpg</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -616,7 +616,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ENFERMOS\10_90_grados.jpg</t>
+          <t>enfermos\10_90_grados.jpg</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -632,7 +632,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ENFERMOS\11-1.jpg</t>
+          <t>enfermos\11-1.jpg</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -648,7 +648,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ENFERMOS\11.jpg</t>
+          <t>enfermos\11.jpg</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -664,7 +664,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ENFERMOS\11_180_grados.jpg</t>
+          <t>enfermos\11_180_grados.jpg</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -680,7 +680,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ENFERMOS\11_270_grados.jpg</t>
+          <t>enfermos\11_270_grados.jpg</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -696,7 +696,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ENFERMOS\11_90_grados.jpg</t>
+          <t>enfermos\11_90_grados.jpg</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -712,7 +712,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ENFERMOS\12-0.jpg</t>
+          <t>enfermos\12-0.jpg</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -728,7 +728,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ENFERMOS\12.jpg</t>
+          <t>enfermos\12.jpg</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -744,7 +744,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ENFERMOS\12_180_grados.jpg</t>
+          <t>enfermos\12_180_grados.jpg</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -760,7 +760,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ENFERMOS\12_270_grados.jpg</t>
+          <t>enfermos\12_270_grados.jpg</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -776,7 +776,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ENFERMOS\12_90_grados.jpg</t>
+          <t>enfermos\12_90_grados.jpg</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -792,7 +792,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ENFERMOS\13.jpg</t>
+          <t>enfermos\13.jpg</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -808,7 +808,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ENFERMOS\13_180_grados.jpg</t>
+          <t>enfermos\13_180_grados.jpg</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -824,7 +824,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ENFERMOS\13_270_grados.jpg</t>
+          <t>enfermos\13_270_grados.jpg</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -840,7 +840,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ENFERMOS\13_90_grados.jpg</t>
+          <t>enfermos\13_90_grados.jpg</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -856,7 +856,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ENFERMOS\14.jpg</t>
+          <t>enfermos\14.jpg</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -872,7 +872,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ENFERMOS\14_180_grados.jpg</t>
+          <t>enfermos\14_180_grados.jpg</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -888,7 +888,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ENFERMOS\14_270_grados.jpg</t>
+          <t>enfermos\14_270_grados.jpg</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -904,7 +904,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ENFERMOS\14_90_grados.jpg</t>
+          <t>enfermos\14_90_grados.jpg</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -920,7 +920,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ENFERMOS\15.jpg</t>
+          <t>enfermos\15.jpg</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -936,7 +936,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ENFERMOS\15_180_grados.jpg</t>
+          <t>enfermos\15_180_grados.jpg</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -952,7 +952,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ENFERMOS\15_270_grados.jpg</t>
+          <t>enfermos\15_270_grados.jpg</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -968,7 +968,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ENFERMOS\15_90_grados.jpg</t>
+          <t>enfermos\15_90_grados.jpg</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -984,7 +984,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ENFERMOS\16.jpg</t>
+          <t>enfermos\16.jpg</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ENFERMOS\16_180_grados.jpg</t>
+          <t>enfermos\16_180_grados.jpg</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ENFERMOS\16_270_grados.jpg</t>
+          <t>enfermos\16_270_grados.jpg</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ENFERMOS\16_90_grados.jpg</t>
+          <t>enfermos\16_90_grados.jpg</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ENFERMOS\17.jpg</t>
+          <t>enfermos\17.jpg</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ENFERMOS\17_180_grados.jpg</t>
+          <t>enfermos\17_180_grados.jpg</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ENFERMOS\17_270_grados.jpg</t>
+          <t>enfermos\17_270_grados.jpg</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ENFERMOS\17_90_grados.jpg</t>
+          <t>enfermos\17_90_grados.jpg</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ENFERMOS\18.jpg</t>
+          <t>enfermos\18.jpg</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ENFERMOS\18_180_grados.jpg</t>
+          <t>enfermos\18_180_grados.jpg</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ENFERMOS\18_270_grados.jpg</t>
+          <t>enfermos\18_270_grados.jpg</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ENFERMOS\18_90_grados.jpg</t>
+          <t>enfermos\18_90_grados.jpg</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ENFERMOS\19.jpg</t>
+          <t>enfermos\19.jpg</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ENFERMOS\19_180_grados.jpg</t>
+          <t>enfermos\19_180_grados.jpg</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ENFERMOS\19_270_grados.jpg</t>
+          <t>enfermos\19_270_grados.jpg</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ENFERMOS\19_90_grados.jpg</t>
+          <t>enfermos\19_90_grados.jpg</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ENFERMOS\1_180_grados.jpg</t>
+          <t>enfermos\1_180_grados.jpg</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ENFERMOS\1_270_grados.jpg</t>
+          <t>enfermos\1_270_grados.jpg</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ENFERMOS\1_90_grados.jpg</t>
+          <t>enfermos\1_90_grados.jpg</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ENFERMOS\2.jpg</t>
+          <t>enfermos\2.jpg</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ENFERMOS\20.jpg</t>
+          <t>enfermos\20.jpg</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ENFERMOS\20_180_grados.jpg</t>
+          <t>enfermos\20_180_grados.jpg</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ENFERMOS\20_270_grados.jpg</t>
+          <t>enfermos\20_270_grados.jpg</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ENFERMOS\20_90_grados.jpg</t>
+          <t>enfermos\20_90_grados.jpg</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ENFERMOS\21.jpg</t>
+          <t>enfermos\21.jpg</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ENFERMOS\21_180_grados.jpg</t>
+          <t>enfermos\21_180_grados.jpg</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ENFERMOS\21_270_grados.jpg</t>
+          <t>enfermos\21_270_grados.jpg</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ENFERMOS\21_90_grados.jpg</t>
+          <t>enfermos\21_90_grados.jpg</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ENFERMOS\22.jpg</t>
+          <t>enfermos\22.jpg</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ENFERMOS\22_180_grados.jpg</t>
+          <t>enfermos\22_180_grados.jpg</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ENFERMOS\22_270_grados.jpg</t>
+          <t>enfermos\22_270_grados.jpg</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ENFERMOS\22_90_grados.jpg</t>
+          <t>enfermos\22_90_grados.jpg</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ENFERMOS\23_180_grados.jpg</t>
+          <t>enfermos\23_180_grados.jpg</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ENFERMOS\23_270_grados.jpg</t>
+          <t>enfermos\23_270_grados.jpg</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ENFERMOS\23_90_grados.jpg</t>
+          <t>enfermos\23_90_grados.jpg</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ENFERMOS\24_180_grados.jpg</t>
+          <t>enfermos\24_180_grados.jpg</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ENFERMOS\24_270_grados.jpg</t>
+          <t>enfermos\24_270_grados.jpg</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ENFERMOS\24_90_grados.jpg</t>
+          <t>enfermos\24_90_grados.jpg</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -1592,7 +1592,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ENFERMOS\25_180_grados.jpg</t>
+          <t>enfermos\25_180_grados.jpg</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ENFERMOS\25_270_grados.jpg</t>
+          <t>enfermos\25_270_grados.jpg</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ENFERMOS\25_90_grados.jpg</t>
+          <t>enfermos\25_90_grados.jpg</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ENFERMOS\26_180_grados.jpg</t>
+          <t>enfermos\26_180_grados.jpg</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ENFERMOS\26_270_grados.jpg</t>
+          <t>enfermos\26_270_grados.jpg</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ENFERMOS\26_90_grados.jpg</t>
+          <t>enfermos\26_90_grados.jpg</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ENFERMOS\27_180_grados.jpg</t>
+          <t>enfermos\27_180_grados.jpg</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ENFERMOS\27_270_grados.jpg</t>
+          <t>enfermos\27_270_grados.jpg</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ENFERMOS\27_90_grados.jpg</t>
+          <t>enfermos\27_90_grados.jpg</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ENFERMOS\28_180_grados.jpg</t>
+          <t>enfermos\28_180_grados.jpg</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ENFERMOS\28_270_grados.jpg</t>
+          <t>enfermos\28_270_grados.jpg</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ENFERMOS\28_90_grados.jpg</t>
+          <t>enfermos\28_90_grados.jpg</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ENFERMOS\29_180_grados.jpg</t>
+          <t>enfermos\29_180_grados.jpg</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ENFERMOS\29_270_grados.jpg</t>
+          <t>enfermos\29_270_grados.jpg</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ENFERMOS\29_90_grados.jpg</t>
+          <t>enfermos\29_90_grados.jpg</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ENFERMOS\2_180_grados.jpg</t>
+          <t>enfermos\2_180_grados.jpg</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -1848,7 +1848,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ENFERMOS\2_270_grados.jpg</t>
+          <t>enfermos\2_270_grados.jpg</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ENFERMOS\2_90_grados.jpg</t>
+          <t>enfermos\2_90_grados.jpg</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -1880,7 +1880,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ENFERMOS\3.jpg</t>
+          <t>enfermos\3.jpg</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ENFERMOS\30_180_grados.jpg</t>
+          <t>enfermos\30_180_grados.jpg</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ENFERMOS\30_270_grados.jpg</t>
+          <t>enfermos\30_270_grados.jpg</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ENFERMOS\30_90_grados.jpg</t>
+          <t>enfermos\30_90_grados.jpg</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -1944,7 +1944,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ENFERMOS\31_180_grados.jpg</t>
+          <t>enfermos\31_180_grados.jpg</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ENFERMOS\31_270_grados.jpg</t>
+          <t>enfermos\31_270_grados.jpg</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ENFERMOS\31_90_grados.jpg</t>
+          <t>enfermos\31_90_grados.jpg</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ENFERMOS\32_180_grados.jpg</t>
+          <t>enfermos\32_180_grados.jpg</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ENFERMOS\32_270_grados.jpg</t>
+          <t>enfermos\32_270_grados.jpg</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ENFERMOS\32_90_grados.jpg</t>
+          <t>enfermos\32_90_grados.jpg</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ENFERMOS\33_180_grados.jpg</t>
+          <t>enfermos\33_180_grados.jpg</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ENFERMOS\33_270_grados.jpg</t>
+          <t>enfermos\33_270_grados.jpg</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -2072,7 +2072,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ENFERMOS\33_90_grados.jpg</t>
+          <t>enfermos\33_90_grados.jpg</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ENFERMOS\34_180_grados.jpg</t>
+          <t>enfermos\34_180_grados.jpg</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ENFERMOS\34_270_grados.jpg</t>
+          <t>enfermos\34_270_grados.jpg</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ENFERMOS\34_90_grados.jpg</t>
+          <t>enfermos\34_90_grados.jpg</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ENFERMOS\35_180_grados.jpg</t>
+          <t>enfermos\35_180_grados.jpg</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ENFERMOS\35_270_grados.jpg</t>
+          <t>enfermos\35_270_grados.jpg</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ENFERMOS\35_90_grados.jpg</t>
+          <t>enfermos\35_90_grados.jpg</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ENFERMOS\36_180_grados.jpg</t>
+          <t>enfermos\36_180_grados.jpg</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ENFERMOS\36_270_grados.jpg</t>
+          <t>enfermos\36_270_grados.jpg</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -2216,7 +2216,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ENFERMOS\36_90_grados.jpg</t>
+          <t>enfermos\36_90_grados.jpg</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ENFERMOS\37_180_grados.jpg</t>
+          <t>enfermos\37_180_grados.jpg</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ENFERMOS\37_270_grados.jpg</t>
+          <t>enfermos\37_270_grados.jpg</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ENFERMOS\37_90_grados.jpg</t>
+          <t>enfermos\37_90_grados.jpg</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -2280,7 +2280,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ENFERMOS\38_180_grados.jpg</t>
+          <t>enfermos\38_180_grados.jpg</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ENFERMOS\38_270_grados.jpg</t>
+          <t>enfermos\38_270_grados.jpg</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ENFERMOS\38_90_grados.jpg</t>
+          <t>enfermos\38_90_grados.jpg</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ENFERMOS\39_180_grados.jpg</t>
+          <t>enfermos\39_180_grados.jpg</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ENFERMOS\39_270_grados.jpg</t>
+          <t>enfermos\39_270_grados.jpg</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ENFERMOS\39_90_grados.jpg</t>
+          <t>enfermos\39_90_grados.jpg</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ENFERMOS\3_180_grados.jpg</t>
+          <t>enfermos\3_180_grados.jpg</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ENFERMOS\3_270_grados.jpg</t>
+          <t>enfermos\3_270_grados.jpg</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ENFERMOS\3_90_grados.jpg</t>
+          <t>enfermos\3_90_grados.jpg</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ENFERMOS\3bm4i1h54.jpg</t>
+          <t>enfermos\3bm4i1h54.jpg</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ENFERMOS\4.jpg</t>
+          <t>enfermos\4.jpg</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ENFERMOS\40-1.jpg</t>
+          <t>enfermos\40-1.jpg</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ENFERMOS\40_180_grados.jpg</t>
+          <t>enfermos\40_180_grados.jpg</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ENFERMOS\40_270_grados.jpg</t>
+          <t>enfermos\40_270_grados.jpg</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ENFERMOS\40_90_grados.jpg</t>
+          <t>enfermos\40_90_grados.jpg</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -2520,7 +2520,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ENFERMOS\41-1.jpg</t>
+          <t>enfermos\41-1.jpg</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ENFERMOS\41_180_grados.jpg</t>
+          <t>enfermos\41_180_grados.jpg</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ENFERMOS\41_270_grados.jpg</t>
+          <t>enfermos\41_270_grados.jpg</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -2568,7 +2568,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ENFERMOS\41_90_grados.jpg</t>
+          <t>enfermos\41_90_grados.jpg</t>
         </is>
       </c>
       <c r="C134" t="n">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ENFERMOS\42_180_grados.jpg</t>
+          <t>enfermos\42_180_grados.jpg</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -2600,7 +2600,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ENFERMOS\42_270_grados.jpg</t>
+          <t>enfermos\42_270_grados.jpg</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -2616,7 +2616,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ENFERMOS\42_90_grados.jpg</t>
+          <t>enfermos\42_90_grados.jpg</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ENFERMOS\43_180_grados.jpg</t>
+          <t>enfermos\43_180_grados.jpg</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ENFERMOS\43_270_grados.jpg</t>
+          <t>enfermos\43_270_grados.jpg</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -2664,7 +2664,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ENFERMOS\43_90_grados.jpg</t>
+          <t>enfermos\43_90_grados.jpg</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ENFERMOS\44_180_grados.jpg</t>
+          <t>enfermos\44_180_grados.jpg</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ENFERMOS\44_270_grados.jpg</t>
+          <t>enfermos\44_270_grados.jpg</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -2712,7 +2712,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ENFERMOS\44_90_grados.jpg</t>
+          <t>enfermos\44_90_grados.jpg</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ENFERMOS\45_180_grados.jpg</t>
+          <t>enfermos\45_180_grados.jpg</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -2744,7 +2744,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ENFERMOS\45_270_grados.jpg</t>
+          <t>enfermos\45_270_grados.jpg</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ENFERMOS\45_90_grados.jpg</t>
+          <t>enfermos\45_90_grados.jpg</t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ENFERMOS\46_180_grados.jpg</t>
+          <t>enfermos\46_180_grados.jpg</t>
         </is>
       </c>
       <c r="C147" t="n">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ENFERMOS\46_270_grados.jpg</t>
+          <t>enfermos\46_270_grados.jpg</t>
         </is>
       </c>
       <c r="C148" t="n">
@@ -2808,7 +2808,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ENFERMOS\46_90_grados.jpg</t>
+          <t>enfermos\46_90_grados.jpg</t>
         </is>
       </c>
       <c r="C149" t="n">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ENFERMOS\47_180_grados.jpg</t>
+          <t>enfermos\47_180_grados.jpg</t>
         </is>
       </c>
       <c r="C150" t="n">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ENFERMOS\47_270_grados.jpg</t>
+          <t>enfermos\47_270_grados.jpg</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ENFERMOS\47_90_grados.jpg</t>
+          <t>enfermos\47_90_grados.jpg</t>
         </is>
       </c>
       <c r="C152" t="n">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ENFERMOS\48_180_grados.jpg</t>
+          <t>enfermos\48_180_grados.jpg</t>
         </is>
       </c>
       <c r="C153" t="n">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ENFERMOS\48_270_grados.jpg</t>
+          <t>enfermos\48_270_grados.jpg</t>
         </is>
       </c>
       <c r="C154" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ENFERMOS\48_90_grados.jpg</t>
+          <t>enfermos\48_90_grados.jpg</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ENFERMOS\49_180_grados.jpg</t>
+          <t>enfermos\49_180_grados.jpg</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -2936,7 +2936,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ENFERMOS\49_270_grados.jpg</t>
+          <t>enfermos\49_270_grados.jpg</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -2952,7 +2952,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ENFERMOS\49_90_grados.jpg</t>
+          <t>enfermos\49_90_grados.jpg</t>
         </is>
       </c>
       <c r="C158" t="n">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ENFERMOS\4_180_grados.jpg</t>
+          <t>enfermos\4_180_grados.jpg</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -2984,7 +2984,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ENFERMOS\4_270_grados.jpg</t>
+          <t>enfermos\4_270_grados.jpg</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ENFERMOS\4_90_grados.jpg</t>
+          <t>enfermos\4_90_grados.jpg</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ENFERMOS\4fb7fb0f041057a3-DSTRBlackBandDisease02.jpg</t>
+          <t>enfermos\4fb7fb0f041057a3-DSTRBlackBandDisease02.jpg</t>
         </is>
       </c>
       <c r="C162" t="n">
@@ -3032,7 +3032,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ENFERMOS\4hb6s5c.jpg</t>
+          <t>enfermos\4hb6s5c.jpg</t>
         </is>
       </c>
       <c r="C163" t="n">
@@ -3048,7 +3048,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ENFERMOS\4k5j48nh.jpg</t>
+          <t>enfermos\4k5j48nh.jpg</t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ENFERMOS\5.jpg</t>
+          <t>enfermos\5.jpg</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -3080,7 +3080,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ENFERMOS\50_180_grados.jpg</t>
+          <t>enfermos\50_180_grados.jpg</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ENFERMOS\50_270_grados.jpg</t>
+          <t>enfermos\50_270_grados.jpg</t>
         </is>
       </c>
       <c r="C167" t="n">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ENFERMOS\50_90_grados.jpg</t>
+          <t>enfermos\50_90_grados.jpg</t>
         </is>
       </c>
       <c r="C168" t="n">
@@ -3128,7 +3128,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ENFERMOS\51_180_grados.jpg</t>
+          <t>enfermos\51_180_grados.jpg</t>
         </is>
       </c>
       <c r="C169" t="n">
@@ -3144,7 +3144,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ENFERMOS\51_270_grados.jpg</t>
+          <t>enfermos\51_270_grados.jpg</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ENFERMOS\51_90_grados.jpg</t>
+          <t>enfermos\51_90_grados.jpg</t>
         </is>
       </c>
       <c r="C171" t="n">
@@ -3176,7 +3176,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>ENFERMOS\52_180_grados.jpg</t>
+          <t>enfermos\52_180_grados.jpg</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>ENFERMOS\52_270_grados.jpg</t>
+          <t>enfermos\52_270_grados.jpg</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ENFERMOS\52_90_grados.jpg</t>
+          <t>enfermos\52_90_grados.jpg</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -3224,7 +3224,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ENFERMOS\53_180_grados.jpg</t>
+          <t>enfermos\53_180_grados.jpg</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ENFERMOS\53_270_grados.jpg</t>
+          <t>enfermos\53_270_grados.jpg</t>
         </is>
       </c>
       <c r="C176" t="n">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ENFERMOS\53_90_grados.jpg</t>
+          <t>enfermos\53_90_grados.jpg</t>
         </is>
       </c>
       <c r="C177" t="n">
@@ -3272,7 +3272,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ENFERMOS\54_180_grados.jpg</t>
+          <t>enfermos\54_180_grados.jpg</t>
         </is>
       </c>
       <c r="C178" t="n">
@@ -3288,7 +3288,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>ENFERMOS\54_270_grados.jpg</t>
+          <t>enfermos\54_270_grados.jpg</t>
         </is>
       </c>
       <c r="C179" t="n">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ENFERMOS\54_90_grados.jpg</t>
+          <t>enfermos\54_90_grados.jpg</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -3320,7 +3320,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ENFERMOS\54fg.jpg</t>
+          <t>enfermos\54fg.jpg</t>
         </is>
       </c>
       <c r="C181" t="n">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>ENFERMOS\55_180_grados.jpg</t>
+          <t>enfermos\55_180_grados.jpg</t>
         </is>
       </c>
       <c r="C182" t="n">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ENFERMOS\55_270_grados.jpg</t>
+          <t>enfermos\55_270_grados.jpg</t>
         </is>
       </c>
       <c r="C183" t="n">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>ENFERMOS\55_90_grados.jpg</t>
+          <t>enfermos\55_90_grados.jpg</t>
         </is>
       </c>
       <c r="C184" t="n">
@@ -3384,7 +3384,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>ENFERMOS\56_180_grados.jpg</t>
+          <t>enfermos\56_180_grados.jpg</t>
         </is>
       </c>
       <c r="C185" t="n">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>ENFERMOS\56_270_grados.jpg</t>
+          <t>enfermos\56_270_grados.jpg</t>
         </is>
       </c>
       <c r="C186" t="n">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>ENFERMOS\56_90_grados.jpg</t>
+          <t>enfermos\56_90_grados.jpg</t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -3432,7 +3432,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>ENFERMOS\57_180_grados.jpg</t>
+          <t>enfermos\57_180_grados.jpg</t>
         </is>
       </c>
       <c r="C188" t="n">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ENFERMOS\57_270_grados.jpg</t>
+          <t>enfermos\57_270_grados.jpg</t>
         </is>
       </c>
       <c r="C189" t="n">
@@ -3464,7 +3464,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>ENFERMOS\57_90_grados.jpg</t>
+          <t>enfermos\57_90_grados.jpg</t>
         </is>
       </c>
       <c r="C190" t="n">
@@ -3480,7 +3480,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>ENFERMOS\58_180_grados.jpg</t>
+          <t>enfermos\58_180_grados.jpg</t>
         </is>
       </c>
       <c r="C191" t="n">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>ENFERMOS\58_270_grados.jpg</t>
+          <t>enfermos\58_270_grados.jpg</t>
         </is>
       </c>
       <c r="C192" t="n">
@@ -3512,7 +3512,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>ENFERMOS\58_90_grados.jpg</t>
+          <t>enfermos\58_90_grados.jpg</t>
         </is>
       </c>
       <c r="C193" t="n">
@@ -3528,7 +3528,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>ENFERMOS\59_180_grados.jpg</t>
+          <t>enfermos\59_180_grados.jpg</t>
         </is>
       </c>
       <c r="C194" t="n">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>ENFERMOS\59_270_grados.jpg</t>
+          <t>enfermos\59_270_grados.jpg</t>
         </is>
       </c>
       <c r="C195" t="n">
@@ -3560,7 +3560,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>ENFERMOS\59_90_grados.jpg</t>
+          <t>enfermos\59_90_grados.jpg</t>
         </is>
       </c>
       <c r="C196" t="n">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>ENFERMOS\59g.jpg</t>
+          <t>enfermos\59g.jpg</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>ENFERMOS\5_180_grados.jpg</t>
+          <t>enfermos\5_180_grados.jpg</t>
         </is>
       </c>
       <c r="C198" t="n">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>ENFERMOS\5_270_grados.jpg</t>
+          <t>enfermos\5_270_grados.jpg</t>
         </is>
       </c>
       <c r="C199" t="n">
@@ -3624,7 +3624,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ENFERMOS\5_90_grados.jpg</t>
+          <t>enfermos\5_90_grados.jpg</t>
         </is>
       </c>
       <c r="C200" t="n">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>ENFERMOS\5c9196ae13f9e.image.jpg</t>
+          <t>enfermos\5c9196ae13f9e.image.jpg</t>
         </is>
       </c>
       <c r="C201" t="n">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>ENFERMOS\5de8f25ee94e8625f3586e14.jpg</t>
+          <t>enfermos\5de8f25ee94e8625f3586e14.jpg</t>
         </is>
       </c>
       <c r="C202" t="n">
@@ -3672,7 +3672,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>ENFERMOS\5f432de816000.image (1).jpg</t>
+          <t>enfermos\5f432de816000.image (1).jpg</t>
         </is>
       </c>
       <c r="C203" t="n">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>ENFERMOS\5fy4b5f.jpg</t>
+          <t>enfermos\5fy4b5f.jpg</t>
         </is>
       </c>
       <c r="C204" t="n">
@@ -3704,7 +3704,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>ENFERMOS\6.jpg</t>
+          <t>enfermos\6.jpg</t>
         </is>
       </c>
       <c r="C205" t="n">
@@ -3720,7 +3720,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>ENFERMOS\60_180_grados.jpg</t>
+          <t>enfermos\60_180_grados.jpg</t>
         </is>
       </c>
       <c r="C206" t="n">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>ENFERMOS\60_270_grados.jpg</t>
+          <t>enfermos\60_270_grados.jpg</t>
         </is>
       </c>
       <c r="C207" t="n">
@@ -3752,7 +3752,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>ENFERMOS\60_90_grados.jpg</t>
+          <t>enfermos\60_90_grados.jpg</t>
         </is>
       </c>
       <c r="C208" t="n">
@@ -3768,7 +3768,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>ENFERMOS\61_180_grados.jpg</t>
+          <t>enfermos\61_180_grados.jpg</t>
         </is>
       </c>
       <c r="C209" t="n">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>ENFERMOS\61_270_grados.jpg</t>
+          <t>enfermos\61_270_grados.jpg</t>
         </is>
       </c>
       <c r="C210" t="n">
@@ -3800,7 +3800,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>ENFERMOS\61_90_grados.jpg</t>
+          <t>enfermos\61_90_grados.jpg</t>
         </is>
       </c>
       <c r="C211" t="n">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>ENFERMOS\62_180_grados.jpg</t>
+          <t>enfermos\62_180_grados.jpg</t>
         </is>
       </c>
       <c r="C212" t="n">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>ENFERMOS\62_270_grados.jpg</t>
+          <t>enfermos\62_270_grados.jpg</t>
         </is>
       </c>
       <c r="C213" t="n">
@@ -3848,7 +3848,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>ENFERMOS\62_90_grados.jpg</t>
+          <t>enfermos\62_90_grados.jpg</t>
         </is>
       </c>
       <c r="C214" t="n">
@@ -3864,7 +3864,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>ENFERMOS\63_180_grados.jpg</t>
+          <t>enfermos\63_180_grados.jpg</t>
         </is>
       </c>
       <c r="C215" t="n">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>ENFERMOS\63_270_grados.jpg</t>
+          <t>enfermos\63_270_grados.jpg</t>
         </is>
       </c>
       <c r="C216" t="n">
@@ -3896,7 +3896,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>ENFERMOS\63_90_grados.jpg</t>
+          <t>enfermos\63_90_grados.jpg</t>
         </is>
       </c>
       <c r="C217" t="n">
@@ -3912,7 +3912,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>ENFERMOS\64_180_grados.jpg</t>
+          <t>enfermos\64_180_grados.jpg</t>
         </is>
       </c>
       <c r="C218" t="n">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>ENFERMOS\64_270_grados.jpg</t>
+          <t>enfermos\64_270_grados.jpg</t>
         </is>
       </c>
       <c r="C219" t="n">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>ENFERMOS\64_90_grados.jpg</t>
+          <t>enfermos\64_90_grados.jpg</t>
         </is>
       </c>
       <c r="C220" t="n">
@@ -3960,7 +3960,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>ENFERMOS\64g87.jpg</t>
+          <t>enfermos\64g87.jpg</t>
         </is>
       </c>
       <c r="C221" t="n">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>ENFERMOS\65_180_grados.jpg</t>
+          <t>enfermos\65_180_grados.jpg</t>
         </is>
       </c>
       <c r="C222" t="n">
@@ -3992,7 +3992,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>ENFERMOS\65_270_grados.jpg</t>
+          <t>enfermos\65_270_grados.jpg</t>
         </is>
       </c>
       <c r="C223" t="n">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>ENFERMOS\65_90_grados.jpg</t>
+          <t>enfermos\65_90_grados.jpg</t>
         </is>
       </c>
       <c r="C224" t="n">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>ENFERMOS\66_180_grados.jpg</t>
+          <t>enfermos\66_180_grados.jpg</t>
         </is>
       </c>
       <c r="C225" t="n">
@@ -4040,7 +4040,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>ENFERMOS\66_270_grados.jpg</t>
+          <t>enfermos\66_270_grados.jpg</t>
         </is>
       </c>
       <c r="C226" t="n">
@@ -4056,7 +4056,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>ENFERMOS\66_90_grados.jpg</t>
+          <t>enfermos\66_90_grados.jpg</t>
         </is>
       </c>
       <c r="C227" t="n">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>ENFERMOS\67_180_grados.jpg</t>
+          <t>enfermos\67_180_grados.jpg</t>
         </is>
       </c>
       <c r="C228" t="n">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>ENFERMOS\67_270_grados.jpg</t>
+          <t>enfermos\67_270_grados.jpg</t>
         </is>
       </c>
       <c r="C229" t="n">
@@ -4104,7 +4104,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>ENFERMOS\67_90_grados.jpg</t>
+          <t>enfermos\67_90_grados.jpg</t>
         </is>
       </c>
       <c r="C230" t="n">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>ENFERMOS\68_90_grados.jpg</t>
+          <t>enfermos\68_90_grados.jpg</t>
         </is>
       </c>
       <c r="C231" t="n">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>ENFERMOS\6_180_grados.jpg</t>
+          <t>enfermos\6_180_grados.jpg</t>
         </is>
       </c>
       <c r="C232" t="n">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>ENFERMOS\6_270_grados.jpg</t>
+          <t>enfermos\6_270_grados.jpg</t>
         </is>
       </c>
       <c r="C233" t="n">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>ENFERMOS\6_90_grados.jpg</t>
+          <t>enfermos\6_90_grados.jpg</t>
         </is>
       </c>
       <c r="C234" t="n">
@@ -4184,7 +4184,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>ENFERMOS\7.jpg</t>
+          <t>enfermos\7.jpg</t>
         </is>
       </c>
       <c r="C235" t="n">
@@ -4200,7 +4200,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>ENFERMOS\70_180_grados.jpg</t>
+          <t>enfermos\70_180_grados.jpg</t>
         </is>
       </c>
       <c r="C236" t="n">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>ENFERMOS\70_90_grados.jpg</t>
+          <t>enfermos\70_90_grados.jpg</t>
         </is>
       </c>
       <c r="C237" t="n">
@@ -4232,7 +4232,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>ENFERMOS\7_180_grados.jpg</t>
+          <t>enfermos\7_180_grados.jpg</t>
         </is>
       </c>
       <c r="C238" t="n">
@@ -4248,7 +4248,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>ENFERMOS\7_270_grados.jpg</t>
+          <t>enfermos\7_270_grados.jpg</t>
         </is>
       </c>
       <c r="C239" t="n">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>ENFERMOS\7_90_grados.jpg</t>
+          <t>enfermos\7_90_grados.jpg</t>
         </is>
       </c>
       <c r="C240" t="n">
@@ -4280,7 +4280,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>ENFERMOS\7jZ6dNYsBdwHEVvVoGCs64-320-80.jpg</t>
+          <t>enfermos\7jZ6dNYsBdwHEVvVoGCs64-320-80.jpg</t>
         </is>
       </c>
       <c r="C241" t="n">
@@ -4296,7 +4296,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>ENFERMOS\7y8r.jpg</t>
+          <t>enfermos\7y8r.jpg</t>
         </is>
       </c>
       <c r="C242" t="n">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>ENFERMOS\8.jpg</t>
+          <t>enfermos\8.jpg</t>
         </is>
       </c>
       <c r="C243" t="n">
@@ -4328,7 +4328,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>ENFERMOS\8_180_grados.jpg</t>
+          <t>enfermos\8_180_grados.jpg</t>
         </is>
       </c>
       <c r="C244" t="n">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>ENFERMOS\8_270_grados.jpg</t>
+          <t>enfermos\8_270_grados.jpg</t>
         </is>
       </c>
       <c r="C245" t="n">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>ENFERMOS\8_90_grados.jpg</t>
+          <t>enfermos\8_90_grados.jpg</t>
         </is>
       </c>
       <c r="C246" t="n">
@@ -4376,7 +4376,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>ENFERMOS\9.jpg</t>
+          <t>enfermos\9.jpg</t>
         </is>
       </c>
       <c r="C247" t="n">
@@ -4392,7 +4392,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>ENFERMOS\9_180_grados.jpg</t>
+          <t>enfermos\9_180_grados.jpg</t>
         </is>
       </c>
       <c r="C248" t="n">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>ENFERMOS\9_270_grados.jpg</t>
+          <t>enfermos\9_270_grados.jpg</t>
         </is>
       </c>
       <c r="C249" t="n">
@@ -4424,7 +4424,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>ENFERMOS\9_90_grados.jpg</t>
+          <t>enfermos\9_90_grados.jpg</t>
         </is>
       </c>
       <c r="C250" t="n">
@@ -4440,7 +4440,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>ENFERMOS\_95063210_gp0stqk4b_pressmedia.jpg</t>
+          <t>enfermos\_95063210_gp0stqk4b_pressmedia.jpg</t>
         </is>
       </c>
       <c r="C251" t="n">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>SANOS\06b8b1718ea51eeb96b51454e11177ec.jpg</t>
+          <t>sanos\06b8b1718ea51eeb96b51454e11177ec.jpg</t>
         </is>
       </c>
       <c r="C252" t="n">
@@ -4472,7 +4472,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>SANOS\0_180_grados_.jpg</t>
+          <t>sanos\0_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C253" t="n">
@@ -4488,7 +4488,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>SANOS\0_270_grados_.jpg</t>
+          <t>sanos\0_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C254" t="n">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>SANOS\0_90_grados_.jpg</t>
+          <t>sanos\0_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C255" t="n">
@@ -4520,7 +4520,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>SANOS\0a3267fea8db0048e75b25acd965bb6d.jpg</t>
+          <t>sanos\0a3267fea8db0048e75b25acd965bb6d.jpg</t>
         </is>
       </c>
       <c r="C256" t="n">
@@ -4536,7 +4536,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>SANOS\0d47971fb578a9d4-DLABbaby.jpg</t>
+          <t>sanos\0d47971fb578a9d4-DLABbaby.jpg</t>
         </is>
       </c>
       <c r="C257" t="n">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>SANOS\0ddbBrain-Coral.jpg</t>
+          <t>sanos\0ddbBrain-Coral.jpg</t>
         </is>
       </c>
       <c r="C258" t="n">
@@ -4568,7 +4568,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>SANOS\1 (1).jpg</t>
+          <t>sanos\1 (1).jpg</t>
         </is>
       </c>
       <c r="C259" t="n">
@@ -4584,7 +4584,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>SANOS\1-grooved-brain-coral-andrew-j-martinez.jpg</t>
+          <t>sanos\1-grooved-brain-coral-andrew-j-martinez.jpg</t>
         </is>
       </c>
       <c r="C260" t="n">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>SANOS\1.jpg</t>
+          <t>sanos\1.jpg</t>
         </is>
       </c>
       <c r="C261" t="n">
@@ -4616,7 +4616,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>SANOS\10_180_grados_.jpg</t>
+          <t>sanos\10_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C262" t="n">
@@ -4632,7 +4632,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>SANOS\10_270_grados_.jpg</t>
+          <t>sanos\10_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C263" t="n">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>SANOS\10_90_grados_.jpg</t>
+          <t>sanos\10_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C264" t="n">
@@ -4664,7 +4664,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>SANOS\11_180_grados_.jpg</t>
+          <t>sanos\11_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C265" t="n">
@@ -4680,7 +4680,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>SANOS\11_270_grados_.jpg</t>
+          <t>sanos\11_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C266" t="n">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>SANOS\11_90_grados_.jpg</t>
+          <t>sanos\11_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C267" t="n">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>SANOS\11x45hy4nj.jpg</t>
+          <t>sanos\11x45hy4nj.jpg</t>
         </is>
       </c>
       <c r="C268" t="n">
@@ -4728,7 +4728,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>SANOS\12_180_grados_.jpg</t>
+          <t>sanos\12_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C269" t="n">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>SANOS\12_270_grados_.jpg</t>
+          <t>sanos\12_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C270" t="n">
@@ -4760,7 +4760,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>SANOS\12_90_grados_.jpg</t>
+          <t>sanos\12_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C271" t="n">
@@ -4776,7 +4776,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>SANOS\13_180_grados_.jpg</t>
+          <t>sanos\13_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C272" t="n">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>SANOS\13_270_grados_.jpg</t>
+          <t>sanos\13_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C273" t="n">
@@ -4808,7 +4808,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>SANOS\13_90_grados_.jpg</t>
+          <t>sanos\13_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C274" t="n">
@@ -4824,7 +4824,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>SANOS\14_180_grados_.jpg</t>
+          <t>sanos\14_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C275" t="n">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>SANOS\14_270_grados_.jpg</t>
+          <t>sanos\14_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C276" t="n">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>SANOS\14_90_grados_.jpg</t>
+          <t>sanos\14_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C277" t="n">
@@ -4872,7 +4872,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>SANOS\15_180_grados_.jpg</t>
+          <t>sanos\15_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C278" t="n">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>SANOS\15_270_grados_.jpg</t>
+          <t>sanos\15_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C279" t="n">
@@ -4904,7 +4904,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>SANOS\15_90_grados_.jpg</t>
+          <t>sanos\15_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C280" t="n">
@@ -4920,7 +4920,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>SANOS\16_180_grados_.jpg</t>
+          <t>sanos\16_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C281" t="n">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>SANOS\16_270_grados_.jpg</t>
+          <t>sanos\16_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C282" t="n">
@@ -4952,7 +4952,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>SANOS\16_90_grados_.jpg</t>
+          <t>sanos\16_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C283" t="n">
@@ -4968,7 +4968,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>SANOS\17_180_grados_.jpg</t>
+          <t>sanos\17_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C284" t="n">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>SANOS\17_270_grados_.jpg</t>
+          <t>sanos\17_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C285" t="n">
@@ -5000,7 +5000,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>SANOS\17_90_grados_.jpg</t>
+          <t>sanos\17_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C286" t="n">
@@ -5016,7 +5016,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>SANOS\18_180_grados_.jpg</t>
+          <t>sanos\18_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C287" t="n">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>SANOS\18_270_grados_.jpg</t>
+          <t>sanos\18_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C288" t="n">
@@ -5048,7 +5048,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>SANOS\18_90_grados_.jpg</t>
+          <t>sanos\18_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C289" t="n">
@@ -5064,7 +5064,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>SANOS\19_180_grados_.jpg</t>
+          <t>sanos\19_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C290" t="n">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>SANOS\19_270_grados_.jpg</t>
+          <t>sanos\19_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C291" t="n">
@@ -5096,7 +5096,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>SANOS\19_90_grados_.jpg</t>
+          <t>sanos\19_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C292" t="n">
@@ -5112,7 +5112,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>SANOS\1_180_grados_.jpg</t>
+          <t>sanos\1_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C293" t="n">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>SANOS\1_270_grados_.jpg</t>
+          <t>sanos\1_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C294" t="n">
@@ -5144,7 +5144,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>SANOS\1_90_grados_.jpg</t>
+          <t>sanos\1_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C295" t="n">
@@ -5160,7 +5160,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>SANOS\1c4f5sc45sc7fgc.jpg</t>
+          <t>sanos\1c4f5sc45sc7fgc.jpg</t>
         </is>
       </c>
       <c r="C296" t="n">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>SANOS\1c65sz47fd.jpg</t>
+          <t>sanos\1c65sz47fd.jpg</t>
         </is>
       </c>
       <c r="C297" t="n">
@@ -5192,7 +5192,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>SANOS\1cz3154fd4f4dfs8f4.jpg</t>
+          <t>sanos\1cz3154fd4f4dfs8f4.jpg</t>
         </is>
       </c>
       <c r="C298" t="n">
@@ -5208,7 +5208,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>SANOS\1v875xc2x54f.jpg</t>
+          <t>sanos\1v875xc2x54f.jpg</t>
         </is>
       </c>
       <c r="C299" t="n">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>SANOS\1x5s4fxgvc.jpg</t>
+          <t>sanos\1x5s4fxgvc.jpg</t>
         </is>
       </c>
       <c r="C300" t="n">
@@ -5240,7 +5240,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>SANOS\20_180_grados_.jpg</t>
+          <t>sanos\20_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C301" t="n">
@@ -5256,7 +5256,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>SANOS\20_270_grados_.jpg</t>
+          <t>sanos\20_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C302" t="n">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>SANOS\20_90_grados_.jpg</t>
+          <t>sanos\20_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C303" t="n">
@@ -5288,7 +5288,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>SANOS\21_180_grados_.jpg</t>
+          <t>sanos\21_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C304" t="n">
@@ -5304,7 +5304,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>SANOS\21_270_grados_.jpg</t>
+          <t>sanos\21_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C305" t="n">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>SANOS\21_90_grados_.jpg</t>
+          <t>sanos\21_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C306" t="n">
@@ -5336,7 +5336,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>SANOS\21c54fd.jpg</t>
+          <t>sanos\21c54fd.jpg</t>
         </is>
       </c>
       <c r="C307" t="n">
@@ -5352,7 +5352,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>SANOS\22_180_grados_.jpg</t>
+          <t>sanos\22_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C308" t="n">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>SANOS\22_270_grados_.jpg</t>
+          <t>sanos\22_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C309" t="n">
@@ -5384,7 +5384,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>SANOS\22_90_grados_.jpg</t>
+          <t>sanos\22_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C310" t="n">
@@ -5400,7 +5400,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>SANOS\23.jpg</t>
+          <t>sanos\23.jpg</t>
         </is>
       </c>
       <c r="C311" t="n">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>SANOS\23_180_grados_.jpg</t>
+          <t>sanos\23_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C312" t="n">
@@ -5432,7 +5432,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>SANOS\23_270_grados_.jpg</t>
+          <t>sanos\23_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C313" t="n">
@@ -5448,7 +5448,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>SANOS\23_90_grados_.jpg</t>
+          <t>sanos\23_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C314" t="n">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>SANOS\24.jpg</t>
+          <t>sanos\24.jpg</t>
         </is>
       </c>
       <c r="C315" t="n">
@@ -5480,7 +5480,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>SANOS\24_180_grados_.jpg</t>
+          <t>sanos\24_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C316" t="n">
@@ -5496,7 +5496,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>SANOS\24_270_grados_.jpg</t>
+          <t>sanos\24_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C317" t="n">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>SANOS\24_90_grados_.jpg</t>
+          <t>sanos\24_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C318" t="n">
@@ -5528,7 +5528,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>SANOS\25.jpg</t>
+          <t>sanos\25.jpg</t>
         </is>
       </c>
       <c r="C319" t="n">
@@ -5544,7 +5544,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>SANOS\25_180_grados_.jpg</t>
+          <t>sanos\25_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C320" t="n">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>SANOS\25_270_grados_.jpg</t>
+          <t>sanos\25_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C321" t="n">
@@ -5576,7 +5576,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>SANOS\25_90_grados_.jpg</t>
+          <t>sanos\25_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C322" t="n">
@@ -5592,7 +5592,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>SANOS\26.jpg</t>
+          <t>sanos\26.jpg</t>
         </is>
       </c>
       <c r="C323" t="n">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>SANOS\26_180_grados_.jpg</t>
+          <t>sanos\26_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C324" t="n">
@@ -5624,7 +5624,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>SANOS\26_270_grados_.jpg</t>
+          <t>sanos\26_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C325" t="n">
@@ -5640,7 +5640,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>SANOS\26_90_grados_.jpg</t>
+          <t>sanos\26_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C326" t="n">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>SANOS\27.jpg</t>
+          <t>sanos\27.jpg</t>
         </is>
       </c>
       <c r="C327" t="n">
@@ -5672,7 +5672,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>SANOS\27_180_grados_.jpg</t>
+          <t>sanos\27_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C328" t="n">
@@ -5688,7 +5688,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>SANOS\27_270_grados_.jpg</t>
+          <t>sanos\27_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C329" t="n">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>SANOS\27_90_grados_.jpg</t>
+          <t>sanos\27_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C330" t="n">
@@ -5720,7 +5720,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>SANOS\28.jpg</t>
+          <t>sanos\28.jpg</t>
         </is>
       </c>
       <c r="C331" t="n">
@@ -5736,7 +5736,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>SANOS\28_180_grados_.jpg</t>
+          <t>sanos\28_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C332" t="n">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>SANOS\28_270_grados_.jpg</t>
+          <t>sanos\28_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C333" t="n">
@@ -5768,7 +5768,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>SANOS\28_90_grados_.jpg</t>
+          <t>sanos\28_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C334" t="n">
@@ -5784,7 +5784,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>SANOS\29.jpg</t>
+          <t>sanos\29.jpg</t>
         </is>
       </c>
       <c r="C335" t="n">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>SANOS\29_180_grados_.jpg</t>
+          <t>sanos\29_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C336" t="n">
@@ -5816,7 +5816,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>SANOS\29_270_grados_.jpg</t>
+          <t>sanos\29_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C337" t="n">
@@ -5832,7 +5832,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>SANOS\29_90_grados_.jpg</t>
+          <t>sanos\29_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C338" t="n">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>SANOS\2_180_grados_.jpg</t>
+          <t>sanos\2_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C339" t="n">
@@ -5864,7 +5864,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>SANOS\2_270_grados_.jpg</t>
+          <t>sanos\2_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C340" t="n">
@@ -5880,7 +5880,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>SANOS\2_90_grados_.jpg</t>
+          <t>sanos\2_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C341" t="n">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>SANOS\3-grooved-brain-coral-andrew-j-martinez.jpg</t>
+          <t>sanos\3-grooved-brain-coral-andrew-j-martinez.jpg</t>
         </is>
       </c>
       <c r="C342" t="n">
@@ -5912,7 +5912,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>SANOS\30.jpg</t>
+          <t>sanos\30.jpg</t>
         </is>
       </c>
       <c r="C343" t="n">
@@ -5928,7 +5928,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>SANOS\30_180_grados_.jpg</t>
+          <t>sanos\30_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C344" t="n">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>SANOS\30_270_grados_.jpg</t>
+          <t>sanos\30_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C345" t="n">
@@ -5960,7 +5960,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>SANOS\30_90_grados_.jpg</t>
+          <t>sanos\30_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C346" t="n">
@@ -5976,7 +5976,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>SANOS\31_180_grados_.jpg</t>
+          <t>sanos\31_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C347" t="n">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>SANOS\31_270_grados_.jpg</t>
+          <t>sanos\31_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C348" t="n">
@@ -6008,7 +6008,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>SANOS\31_90_grados_.jpg</t>
+          <t>sanos\31_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C349" t="n">
@@ -6024,7 +6024,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>SANOS\32_180_grados_.jpg</t>
+          <t>sanos\32_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C350" t="n">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>SANOS\32_270_grados_.jpg</t>
+          <t>sanos\32_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C351" t="n">
@@ -6056,7 +6056,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>SANOS\32_90_grados_.jpg</t>
+          <t>sanos\32_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C352" t="n">
@@ -6072,7 +6072,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>SANOS\33_180_grados_.jpg</t>
+          <t>sanos\33_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C353" t="n">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>SANOS\33_270_grados_.jpg</t>
+          <t>sanos\33_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C354" t="n">
@@ -6104,7 +6104,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>SANOS\33_90_grados_.jpg</t>
+          <t>sanos\33_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C355" t="n">
@@ -6120,7 +6120,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>SANOS\34_180_grados_.jpg</t>
+          <t>sanos\34_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C356" t="n">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>SANOS\34_270_grados_.jpg</t>
+          <t>sanos\34_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C357" t="n">
@@ -6152,7 +6152,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>SANOS\34_90_grados_.jpg</t>
+          <t>sanos\34_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C358" t="n">
@@ -6168,7 +6168,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>SANOS\35_180_grados_.jpg</t>
+          <t>sanos\35_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C359" t="n">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>SANOS\35_270_grados_.jpg</t>
+          <t>sanos\35_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C360" t="n">
@@ -6200,7 +6200,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>SANOS\35_90_grados_.jpg</t>
+          <t>sanos\35_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C361" t="n">
@@ -6216,7 +6216,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>SANOS\36_180_grados_.jpg</t>
+          <t>sanos\36_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C362" t="n">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>SANOS\36_270_grados_.jpg</t>
+          <t>sanos\36_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C363" t="n">
@@ -6248,7 +6248,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>SANOS\36_90_grados_.jpg</t>
+          <t>sanos\36_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C364" t="n">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>SANOS\37_180_grados_.jpg</t>
+          <t>sanos\37_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C365" t="n">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>SANOS\37_270_grados_.jpg</t>
+          <t>sanos\37_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C366" t="n">
@@ -6296,7 +6296,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>SANOS\37_90_grados_.jpg</t>
+          <t>sanos\37_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C367" t="n">
@@ -6312,7 +6312,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>SANOS\38_180_grados_.jpg</t>
+          <t>sanos\38_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C368" t="n">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>SANOS\38_270_grados_.jpg</t>
+          <t>sanos\38_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C369" t="n">
@@ -6344,7 +6344,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>SANOS\38_90_grados_.jpg</t>
+          <t>sanos\38_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C370" t="n">
@@ -6360,7 +6360,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>SANOS\39_180_grados_.jpg</t>
+          <t>sanos\39_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C371" t="n">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>SANOS\39_270_grados_.jpg</t>
+          <t>sanos\39_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C372" t="n">
@@ -6392,7 +6392,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>SANOS\39_90_grados_.jpg</t>
+          <t>sanos\39_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C373" t="n">
@@ -6408,7 +6408,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>SANOS\3_180_grados_.jpg</t>
+          <t>sanos\3_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C374" t="n">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>SANOS\3_270_grados_.jpg</t>
+          <t>sanos\3_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C375" t="n">
@@ -6440,7 +6440,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>SANOS\3_90_grados_.jpg</t>
+          <t>sanos\3_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C376" t="n">
@@ -6456,7 +6456,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>SANOS\3f379e2ae7f2a026-Diplorastrigosa2.jpg</t>
+          <t>sanos\3f379e2ae7f2a026-Diplorastrigosa2.jpg</t>
         </is>
       </c>
       <c r="C377" t="n">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>SANOS\40_180_grados_.jpg</t>
+          <t>sanos\40_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C378" t="n">
@@ -6488,7 +6488,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>SANOS\40_270_grados_.jpg</t>
+          <t>sanos\40_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C379" t="n">
@@ -6504,7 +6504,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>SANOS\40_90_grados_.jpg</t>
+          <t>sanos\40_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C380" t="n">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>SANOS\40bf4a020788eeec4e211041f18a483e--fair-games-brain-coral.jpg</t>
+          <t>sanos\40bf4a020788eeec4e211041f18a483e--fair-games-brain-coral.jpg</t>
         </is>
       </c>
       <c r="C381" t="n">
@@ -6536,7 +6536,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>SANOS\41_180_grados_.jpg</t>
+          <t>sanos\41_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C382" t="n">
@@ -6552,7 +6552,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>SANOS\41_270_grados_.jpg</t>
+          <t>sanos\41_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C383" t="n">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>SANOS\41_90_grados_.jpg</t>
+          <t>sanos\41_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C384" t="n">
@@ -6584,7 +6584,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>SANOS\42_180_grados_.jpg</t>
+          <t>sanos\42_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C385" t="n">
@@ -6600,7 +6600,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>SANOS\42_270_grados_.jpg</t>
+          <t>sanos\42_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C386" t="n">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>SANOS\42_90_grados_.jpg</t>
+          <t>sanos\42_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C387" t="n">
@@ -6632,7 +6632,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>SANOS\43_180_grados_.jpg</t>
+          <t>sanos\43_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C388" t="n">
@@ -6648,7 +6648,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>SANOS\43_270_grados_.jpg</t>
+          <t>sanos\43_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C389" t="n">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>SANOS\43_90_grados_.jpg</t>
+          <t>sanos\43_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C390" t="n">
@@ -6680,7 +6680,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>SANOS\44_180_grados_.jpg</t>
+          <t>sanos\44_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C391" t="n">
@@ -6696,7 +6696,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>SANOS\44_270_grados_.jpg</t>
+          <t>sanos\44_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C392" t="n">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>SANOS\44_90_grados_.jpg</t>
+          <t>sanos\44_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C393" t="n">
@@ -6728,7 +6728,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>SANOS\45_180_grados_.jpg</t>
+          <t>sanos\45_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C394" t="n">
@@ -6744,7 +6744,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>SANOS\45_270_grados_.jpg</t>
+          <t>sanos\45_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C395" t="n">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>SANOS\45_90_grados_.jpg</t>
+          <t>sanos\45_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C396" t="n">
@@ -6776,7 +6776,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>SANOS\45v4g5xvgh.jpg</t>
+          <t>sanos\45v4g5xvgh.jpg</t>
         </is>
       </c>
       <c r="C397" t="n">
@@ -6792,7 +6792,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>SANOS\46_180_grados_.jpg</t>
+          <t>sanos\46_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C398" t="n">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>SANOS\46_270_grados_.jpg</t>
+          <t>sanos\46_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C399" t="n">
@@ -6824,7 +6824,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>SANOS\46_90_grados_.jpg</t>
+          <t>sanos\46_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C400" t="n">
@@ -6840,7 +6840,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>SANOS\47_180_grados_.jpg</t>
+          <t>sanos\47_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C401" t="n">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>SANOS\47_270_grados_.jpg</t>
+          <t>sanos\47_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C402" t="n">
@@ -6872,7 +6872,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>SANOS\47_90_grados_.jpg</t>
+          <t>sanos\47_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C403" t="n">
@@ -6888,7 +6888,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>SANOS\48_180_grados_.jpg</t>
+          <t>sanos\48_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C404" t="n">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>SANOS\48_270_grados_.jpg</t>
+          <t>sanos\48_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C405" t="n">
@@ -6920,7 +6920,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>SANOS\48_90_grados_.jpg</t>
+          <t>sanos\48_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C406" t="n">
@@ -6936,7 +6936,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>SANOS\49_180_grados_.jpg</t>
+          <t>sanos\49_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C407" t="n">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>SANOS\49_270_grados_.jpg</t>
+          <t>sanos\49_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C408" t="n">
@@ -6968,7 +6968,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>SANOS\49_90_grados_.jpg</t>
+          <t>sanos\49_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C409" t="n">
@@ -6984,7 +6984,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>SANOS\4_180_grados_.jpg</t>
+          <t>sanos\4_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C410" t="n">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>SANOS\4_270_grados_.jpg</t>
+          <t>sanos\4_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C411" t="n">
@@ -7016,7 +7016,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>SANOS\4_90_grados_.jpg</t>
+          <t>sanos\4_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C412" t="n">
@@ -7032,7 +7032,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>SANOS\4cx5z4e8fxd.jpg</t>
+          <t>sanos\4cx5z4e8fxd.jpg</t>
         </is>
       </c>
       <c r="C413" t="n">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>SANOS\4d5s4dfx.jpg</t>
+          <t>sanos\4d5s4dfx.jpg</t>
         </is>
       </c>
       <c r="C414" t="n">
@@ -7064,7 +7064,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>SANOS\4d8c8xw.jpg</t>
+          <t>sanos\4d8c8xw.jpg</t>
         </is>
       </c>
       <c r="C415" t="n">
@@ -7080,7 +7080,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>SANOS\4g78v7bv.jpg</t>
+          <t>sanos\4g78v7bv.jpg</t>
         </is>
       </c>
       <c r="C416" t="n">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>SANOS\4v5d4vdier.jpg</t>
+          <t>sanos\4v5d4vdier.jpg</t>
         </is>
       </c>
       <c r="C417" t="n">
@@ -7112,7 +7112,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>SANOS\50_180_grados_.jpg</t>
+          <t>sanos\50_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C418" t="n">
@@ -7128,7 +7128,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>SANOS\50_270_grados_.jpg</t>
+          <t>sanos\50_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C419" t="n">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>SANOS\50_90_grados_.jpg</t>
+          <t>sanos\50_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C420" t="n">
@@ -7160,7 +7160,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>SANOS\51_180_grados_.jpg</t>
+          <t>sanos\51_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C421" t="n">
@@ -7176,7 +7176,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>SANOS\51_270_grados_.jpg</t>
+          <t>sanos\51_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C422" t="n">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>SANOS\51_90_grados_.jpg</t>
+          <t>sanos\51_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C423" t="n">
@@ -7208,7 +7208,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>SANOS\52_180_grados_.jpg</t>
+          <t>sanos\52_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C424" t="n">
@@ -7224,7 +7224,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>SANOS\52_270_grados_.jpg</t>
+          <t>sanos\52_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C425" t="n">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>SANOS\52_90_grados_.jpg</t>
+          <t>sanos\52_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C426" t="n">
@@ -7256,7 +7256,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>SANOS\53_180_grados_.jpg</t>
+          <t>sanos\53_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C427" t="n">
@@ -7272,7 +7272,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>SANOS\53_270_grados_.jpg</t>
+          <t>sanos\53_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C428" t="n">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>SANOS\53_90_grados_.jpg</t>
+          <t>sanos\53_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C429" t="n">
@@ -7304,7 +7304,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>SANOS\54_180_grados_.jpg</t>
+          <t>sanos\54_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C430" t="n">
@@ -7320,7 +7320,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>SANOS\54_270_grados_.jpg</t>
+          <t>sanos\54_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C431" t="n">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>SANOS\54_90_grados_.jpg</t>
+          <t>sanos\54_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C432" t="n">
@@ -7352,7 +7352,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>SANOS\54b15hcfb.jpg</t>
+          <t>sanos\54b15hcfb.jpg</t>
         </is>
       </c>
       <c r="C433" t="n">
@@ -7368,7 +7368,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>SANOS\54df.jpg</t>
+          <t>sanos\54df.jpg</t>
         </is>
       </c>
       <c r="C434" t="n">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>SANOS\54vc8rsvc.jpg</t>
+          <t>sanos\54vc8rsvc.jpg</t>
         </is>
       </c>
       <c r="C435" t="n">
@@ -7400,7 +7400,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>SANOS\55_180_grados_.jpg</t>
+          <t>sanos\55_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C436" t="n">
@@ -7416,7 +7416,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>SANOS\55_270_grados_.jpg</t>
+          <t>sanos\55_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C437" t="n">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>SANOS\55_90_grados_.jpg</t>
+          <t>sanos\55_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C438" t="n">
@@ -7448,7 +7448,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>SANOS\56_180_grados_.jpg</t>
+          <t>sanos\56_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C439" t="n">
@@ -7464,7 +7464,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>SANOS\56_270_grados_.jpg</t>
+          <t>sanos\56_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C440" t="n">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>SANOS\56_90_grados_.jpg</t>
+          <t>sanos\56_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C441" t="n">
@@ -7496,7 +7496,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>SANOS\57_180_grados_.jpg</t>
+          <t>sanos\57_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C442" t="n">
@@ -7512,7 +7512,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>SANOS\57_270_grados_.jpg</t>
+          <t>sanos\57_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C443" t="n">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>SANOS\57_90_grados_.jpg</t>
+          <t>sanos\57_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C444" t="n">
@@ -7544,7 +7544,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>SANOS\57cd5d7g7vd.jpg</t>
+          <t>sanos\57cd5d7g7vd.jpg</t>
         </is>
       </c>
       <c r="C445" t="n">
@@ -7560,7 +7560,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>SANOS\58_180_grados_.jpg</t>
+          <t>sanos\58_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C446" t="n">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>SANOS\58_270_grados_.jpg</t>
+          <t>sanos\58_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C447" t="n">
@@ -7592,7 +7592,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>SANOS\58_90_grados_.jpg</t>
+          <t>sanos\58_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C448" t="n">
@@ -7608,7 +7608,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>SANOS\59_180_grados_.jpg</t>
+          <t>sanos\59_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C449" t="n">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>SANOS\59_270_grados_.jpg</t>
+          <t>sanos\59_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C450" t="n">
@@ -7640,7 +7640,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>SANOS\59_90_grados_.jpg</t>
+          <t>sanos\59_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C451" t="n">
@@ -7656,7 +7656,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>SANOS\5_180_grados_.jpg</t>
+          <t>sanos\5_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C452" t="n">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>SANOS\5_270_grados_.jpg</t>
+          <t>sanos\5_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C453" t="n">
@@ -7688,7 +7688,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>SANOS\5_90_grados_.jpg</t>
+          <t>sanos\5_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C454" t="n">
@@ -7704,7 +7704,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>SANOS\5feeaf512de8646c3367981ad182ad11.jpg</t>
+          <t>sanos\5feeaf512de8646c3367981ad182ad11.jpg</t>
         </is>
       </c>
       <c r="C455" t="n">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>SANOS\60_180_grados_.jpg</t>
+          <t>sanos\60_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C456" t="n">
@@ -7736,7 +7736,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>SANOS\60_270_grados_.jpg</t>
+          <t>sanos\60_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C457" t="n">
@@ -7752,7 +7752,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>SANOS\60_90_grados_.jpg</t>
+          <t>sanos\60_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C458" t="n">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>SANOS\61_180_grados_.jpg</t>
+          <t>sanos\61_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C459" t="n">
@@ -7784,7 +7784,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>SANOS\61_270_grados_.jpg</t>
+          <t>sanos\61_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C460" t="n">
@@ -7800,7 +7800,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>SANOS\61_90_grados_.jpg</t>
+          <t>sanos\61_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C461" t="n">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>SANOS\62_180_grados_.jpg</t>
+          <t>sanos\62_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C462" t="n">
@@ -7832,7 +7832,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>SANOS\62_270_grados_.jpg</t>
+          <t>sanos\62_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C463" t="n">
@@ -7848,7 +7848,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>SANOS\62_90_grados_.jpg</t>
+          <t>sanos\62_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C464" t="n">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>SANOS\63_180_grados_.jpg</t>
+          <t>sanos\63_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C465" t="n">
@@ -7880,7 +7880,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>SANOS\63_270_grados_.jpg</t>
+          <t>sanos\63_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C466" t="n">
@@ -7896,7 +7896,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>SANOS\63_90_grados_.jpg</t>
+          <t>sanos\63_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C467" t="n">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>SANOS\63fa17f8c58c54132ab8f50b2b9cb006--coral-google-search.jpg</t>
+          <t>sanos\63fa17f8c58c54132ab8f50b2b9cb006--coral-google-search.jpg</t>
         </is>
       </c>
       <c r="C468" t="n">
@@ -7928,7 +7928,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>SANOS\64_180_grados_.jpg</t>
+          <t>sanos\64_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C469" t="n">
@@ -7944,7 +7944,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>SANOS\64_270_grados_.jpg</t>
+          <t>sanos\64_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C470" t="n">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>SANOS\64_90_grados_.jpg</t>
+          <t>sanos\64_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C471" t="n">
@@ -7976,7 +7976,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>SANOS\65_180_grados_.jpg</t>
+          <t>sanos\65_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C472" t="n">
@@ -7992,7 +7992,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>SANOS\65_270_grados_.jpg</t>
+          <t>sanos\65_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C473" t="n">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>SANOS\65_90_grados_.jpg</t>
+          <t>sanos\65_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C474" t="n">
@@ -8024,7 +8024,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>SANOS\66_180_grados_.jpg</t>
+          <t>sanos\66_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C475" t="n">
@@ -8040,7 +8040,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>SANOS\66_90_grados_.jpg</t>
+          <t>sanos\66_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C476" t="n">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>SANOS\67_180_grados_.jpg</t>
+          <t>sanos\67_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C477" t="n">
@@ -8072,7 +8072,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>SANOS\67_90_grados_.jpg</t>
+          <t>sanos\67_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C478" t="n">
@@ -8088,7 +8088,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>SANOS\6_180_grados_.jpg</t>
+          <t>sanos\6_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C479" t="n">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>SANOS\6_270_grados_.jpg</t>
+          <t>sanos\6_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C480" t="n">
@@ -8120,7 +8120,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>SANOS\6_90_grados_.jpg</t>
+          <t>sanos\6_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C481" t="n">
@@ -8136,7 +8136,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>SANOS\6b01f7f0bca16ac56966f3c989248e1f.jpg</t>
+          <t>sanos\6b01f7f0bca16ac56966f3c989248e1f.jpg</t>
         </is>
       </c>
       <c r="C482" t="n">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>SANOS\7_180_grados_.jpg</t>
+          <t>sanos\7_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C483" t="n">
@@ -8168,7 +8168,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>SANOS\7_270_grados_.jpg</t>
+          <t>sanos\7_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C484" t="n">
@@ -8184,7 +8184,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>SANOS\7_90_grados_.jpg</t>
+          <t>sanos\7_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C485" t="n">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>SANOS\7b508980e0579a71d23637041f9e7543.jpg</t>
+          <t>sanos\7b508980e0579a71d23637041f9e7543.jpg</t>
         </is>
       </c>
       <c r="C486" t="n">
@@ -8216,7 +8216,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>SANOS\7c2fxcc4.jpg</t>
+          <t>sanos\7c2fxcc4.jpg</t>
         </is>
       </c>
       <c r="C487" t="n">
@@ -8232,7 +8232,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>SANOS\7c8s7chbgfb.jpg</t>
+          <t>sanos\7c8s7chbgfb.jpg</t>
         </is>
       </c>
       <c r="C488" t="n">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>SANOS\7f8sd2xz.jpg</t>
+          <t>sanos\7f8sd2xz.jpg</t>
         </is>
       </c>
       <c r="C489" t="n">
@@ -8264,7 +8264,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>SANOS\7gvd2g7c4dxc.jpg</t>
+          <t>sanos\7gvd2g7c4dxc.jpg</t>
         </is>
       </c>
       <c r="C490" t="n">
@@ -8280,7 +8280,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>SANOS\8_180_grados_.jpg</t>
+          <t>sanos\8_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C491" t="n">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>SANOS\8_270_grados_.jpg</t>
+          <t>sanos\8_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C492" t="n">
@@ -8312,7 +8312,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>SANOS\8_90_grados_.jpg</t>
+          <t>sanos\8_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C493" t="n">
@@ -8328,7 +8328,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>SANOS\8c78dbnk.jpg</t>
+          <t>sanos\8c78dbnk.jpg</t>
         </is>
       </c>
       <c r="C494" t="n">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>SANOS\8d4v8dvc.jpg</t>
+          <t>sanos\8d4v8dvc.jpg</t>
         </is>
       </c>
       <c r="C495" t="n">
@@ -8360,7 +8360,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>SANOS\8v41b5t2c2vb.jpg</t>
+          <t>sanos\8v41b5t2c2vb.jpg</t>
         </is>
       </c>
       <c r="C496" t="n">
@@ -8376,7 +8376,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>SANOS\9_180_grados_.jpg</t>
+          <t>sanos\9_180_grados_.jpg</t>
         </is>
       </c>
       <c r="C497" t="n">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>SANOS\9_270_grados_.jpg</t>
+          <t>sanos\9_270_grados_.jpg</t>
         </is>
       </c>
       <c r="C498" t="n">
@@ -8408,7 +8408,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>SANOS\9_90_grados_.jpg</t>
+          <t>sanos\9_90_grados_.jpg</t>
         </is>
       </c>
       <c r="C499" t="n">
@@ -8424,7 +8424,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>SANOS\9ipo9o9kk.jpg</t>
+          <t>sanos\9ipo9o9kk.jpg</t>
         </is>
       </c>
       <c r="C500" t="n">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>SANOS\_39949690_coral_orange203b.jpg</t>
+          <t>sanos\_39949690_coral_orange203b.jpg</t>
         </is>
       </c>
       <c r="C501" t="n">
